--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/IS381 2025 Fall/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/SPS Dropbox/Jason Bryer/Teaching/IS381 2025 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0D1E19-22DA-6F48-9A0F-7786ED339928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E10076-29C1-8845-B7B1-66F6FDAA67DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="8960" windowWidth="24780" windowHeight="14160" xr2:uid="{BFE2A6F7-E8E8-014E-9460-2468D969C60C}"/>
+    <workbookView xWindow="1500" yWindow="3240" windowWidth="24780" windowHeight="14160" xr2:uid="{BFE2A6F7-E8E8-014E-9460-2468D969C60C}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Week</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>NO CLASS - Thanksgiving</t>
+  </si>
+  <si>
+    <t>/slides/00-Intro_to_Course.html</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1081,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1147,6 +1150,9 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1187,7 +1193,7 @@
         <v>45914</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D17" si="2">D3 + 7</f>
+        <f t="shared" ref="D4:D14" si="2">D3 + 7</f>
         <v>45908</v>
       </c>
       <c r="E4" t="s">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/SPS Dropbox/Jason Bryer/Teaching/IS381 2025 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E10076-29C1-8845-B7B1-66F6FDAA67DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D1F659-1C2E-104C-97DD-1E79EC1A99E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="3240" windowWidth="24780" windowHeight="14160" xr2:uid="{BFE2A6F7-E8E8-014E-9460-2468D969C60C}"/>
   </bookViews>
@@ -200,7 +200,7 @@
     <t>NO CLASS - Thanksgiving</t>
   </si>
   <si>
-    <t>/slides/00-Intro_to_Course.html</t>
+    <t>00-Intro_to_Course.html</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/SPS Dropbox/Jason Bryer/Teaching/IS381 2025 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D1F659-1C2E-104C-97DD-1E79EC1A99E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4466A2F-6290-844C-8140-070393CAE5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="3240" windowWidth="24780" windowHeight="14160" xr2:uid="{BFE2A6F7-E8E8-014E-9460-2468D969C60C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Week</t>
   </si>
@@ -200,7 +200,10 @@
     <t>NO CLASS - Thanksgiving</t>
   </si>
   <si>
-    <t>00-Intro_to_Course.html</t>
+    <t>00-Intro_to_Course</t>
+  </si>
+  <si>
+    <t>iqWZs7QrT9E</t>
   </si>
 </sst>
 </file>
@@ -1080,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9742E9BA-7207-5147-915C-5133B9326A38}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1153,6 +1156,9 @@
       <c r="H2" t="s">
         <v>55</v>
       </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/SPS Dropbox/Jason Bryer/Teaching/IS381 2025 Fall/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/IS381 2025 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4466A2F-6290-844C-8140-070393CAE5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FACD12F-BA64-944C-B4B9-CB1F7C74E082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="3240" windowWidth="24780" windowHeight="14160" xr2:uid="{BFE2A6F7-E8E8-014E-9460-2468D969C60C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Week</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Introduction to R and RStudio</t>
   </si>
   <si>
-    <t>R coding basics</t>
-  </si>
-  <si>
     <t>Data (importing and structure)</t>
   </si>
   <si>
@@ -204,6 +201,15 @@
   </si>
   <si>
     <t>iqWZs7QrT9E</t>
+  </si>
+  <si>
+    <t>Intro to Data</t>
+  </si>
+  <si>
+    <t>01-Intro_to_Data</t>
+  </si>
+  <si>
+    <t>pwFIHg-dK68</t>
   </si>
 </sst>
 </file>
@@ -213,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -351,6 +357,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -653,7 +667,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -696,8 +710,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -706,8 +721,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -741,6 +757,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1084,7 +1101,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1109,25 +1126,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1148,16 +1165,16 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
         <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1177,13 +1194,19 @@
         <v>45901</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1203,13 +1226,13 @@
         <v>45908</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1229,13 +1252,13 @@
         <v>45915</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1255,13 +1278,13 @@
         <v>45922</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1281,13 +1304,13 @@
         <v>45929</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1307,13 +1330,13 @@
         <v>45936</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1333,13 +1356,13 @@
         <v>45943</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1359,13 +1382,13 @@
         <v>45950</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1385,13 +1408,13 @@
         <v>45957</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1411,13 +1434,13 @@
         <v>45964</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1437,13 +1460,13 @@
         <v>45971</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1463,13 +1486,13 @@
         <v>45978</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1482,7 +1505,7 @@
         <v>45991</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1501,13 +1524,13 @@
         <v>45992</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1527,13 +1550,16 @@
         <v>45999</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" display="https://youtu.be/pwFIHg-dK68" xr:uid="{64FB751A-13FA-A646-8974-BF2A3E9309CA}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>